--- a/results/mp/logistic/corona/confidence/168/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
@@ -61,24 +67,21 @@
     <t>war</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -100,7 +100,13 @@
     <t>stop</t>
   </si>
   <si>
-    <t>are</t>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
@@ -112,6 +118,9 @@
     <t>the</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
@@ -121,124 +130,130 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>well</t>
+    <t>god</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>yes</t>
   </si>
   <si>
     <t>care</t>
@@ -250,46 +265,43 @@
     <t>giving</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -716,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,31 +746,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -766,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,38 +928,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6216216216216216</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="L7">
-        <v>106</v>
-      </c>
-      <c r="M7">
-        <v>106</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -958,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,16 +999,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6052631578947368</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,16 +1099,16 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1116,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5600000000000001</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8297872340425532</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4497354497354497</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8198433420365535</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3565891472868217</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D15">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8028169014084507</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2711864406779661</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8018867924528302</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2666666666666667</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.7875</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2321428571428572</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -1534,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2080536912751678</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.775</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1277777777777778</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,31 +1646,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.765625</v>
       </c>
       <c r="L21">
+        <v>98</v>
+      </c>
+      <c r="M21">
+        <v>98</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>30</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1031746031746032</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K22">
         <v>0.75</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,37 +1728,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01257861635220126</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1256</v>
+        <v>360</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,37 +1778,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0084530853761623</v>
+        <v>0.00710135571336346</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="F24">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2346</v>
+        <v>3076</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,37 +1828,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006962576153176675</v>
+        <v>0.007029053420805998</v>
       </c>
       <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>0.38</v>
+      </c>
+      <c r="F25">
+        <v>0.62</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2119</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L25">
         <v>16</v>
       </c>
-      <c r="D25">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>0.41</v>
-      </c>
-      <c r="F25">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2282</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
       <c r="M25">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,37 +1878,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005056398288603656</v>
+        <v>0.006736842105263158</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5116</v>
+        <v>2359</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.696969696969697</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,28 +1928,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004885993485342019</v>
+        <v>0.005647263249348393</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="F27">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4277</v>
+        <v>2289</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K27">
         <v>0.6825396825396826</v>
@@ -1966,141 +1978,213 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004233017536786938</v>
+        <v>0.005458089668615985</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E28">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>5102</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.005023547880690738</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3169</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.675</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.00418702023726448</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>47</v>
+      </c>
+      <c r="E30">
         <v>0.62</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>0.38</v>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4940</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L28">
-        <v>19</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4281</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K30">
         <v>0.6666666666666666</v>
       </c>
       <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.002816901408450704</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>0.65</v>
+      </c>
+      <c r="F31">
+        <v>0.35</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>4956</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L31">
         <v>16</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>16</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31">
-        <v>0.65</v>
-      </c>
-      <c r="L31">
-        <v>26</v>
-      </c>
-      <c r="M31">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2112,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2138,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.6294117647058823</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L34">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M34">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2164,12 +2248,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K35">
         <v>0.6046511627906976</v>
@@ -2195,16 +2279,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2216,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.576271186440678</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L37">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M37">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2242,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.5690376569037657</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2268,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2294,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5531914893617021</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L40">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2320,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.5285714285714286</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2346,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.5185185185185185</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2372,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.4831460674157304</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2398,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.4523809523809524</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2424,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.3939393939393939</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2450,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.3725490196078431</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2476,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.3717948717948718</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2502,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.3333333333333333</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2528,15 +2612,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.2711864406779661</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L49">
         <v>16</v>
@@ -2554,47 +2638,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.25</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.203125</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2606,47 +2690,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.03341687552213868</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.03107861060329068</v>
+        <v>0.25</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2658,293 +2742,293 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>530</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.01700251889168766</v>
+        <v>0.02742230347349177</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1561</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.01335428122545169</v>
+        <v>0.02003338898163606</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N55">
-        <v>0.52</v>
+        <v>0.92</v>
       </c>
       <c r="O55">
-        <v>0.48</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1256</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.01239203905369884</v>
+        <v>0.01419878296146045</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="O56">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2630</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.00794314381270903</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2373</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.007035175879396985</v>
+        <v>0.01276276276276276</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N58">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="O58">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4940</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.006965405154399814</v>
+        <v>0.0119496855345912</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N59">
-        <v>0.59</v>
+        <v>0.83</v>
       </c>
       <c r="O59">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4277</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.006160164271047228</v>
+        <v>0.00794314381270903</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N60">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O60">
-        <v>0.4</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2420</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="K61">
-        <v>0.006029684601113173</v>
+        <v>0.006813315164492894</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N61">
-        <v>0.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O61">
-        <v>0.13</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2143</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62">
+        <v>0.006728538283062645</v>
+      </c>
+      <c r="L62">
         <v>29</v>
       </c>
-      <c r="K62">
-        <v>0.005510809665112336</v>
-      </c>
-      <c r="L62">
-        <v>13</v>
-      </c>
       <c r="M62">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N62">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="O62">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>2346</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="K63">
-        <v>0.005012531328320802</v>
+        <v>0.005218787635487756</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N63">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="O63">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>3176</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K64">
-        <v>0.004475578906402024</v>
+        <v>0.005023547880690738</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N64">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="O64">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>5116</v>
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
